--- a/DATA_FILES/X_TEST_STUDENTS.xlsx
+++ b/DATA_FILES/X_TEST_STUDENTS.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,11 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00FF0000"/>
+      <sz val="24"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,9 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -425,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,15 +441,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="3" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,12 +477,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>HOME_STATE</t>
+          <t>STATE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>YEAR</t>
+          <t>YR</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -487,12 +497,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ENGLISH_101_FINAL_SCORE</t>
+          <t>ENG_101_FINAL</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ECON_101_FINAL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>STAT_201_FINAL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -512,7 +532,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OREGON</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -527,9 +547,15 @@
       <c r="I2" t="n">
         <v>100</v>
       </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -564,9 +590,15 @@
       <c r="I3" t="n">
         <v>80</v>
       </c>
+      <c r="J3" t="n">
+        <v>90</v>
+      </c>
+      <c r="K3" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -597,6 +629,12 @@
       </c>
       <c r="H4" t="n">
         <v>80</v>
+      </c>
+      <c r="J4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K4" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="5">

--- a/DATA_FILES/X_TEST_STUDENTS.xlsx
+++ b/DATA_FILES/X_TEST_STUDENTS.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,18 +28,19 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="00FF0000"/>
-      <sz val="24"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9999"/>
+        <bgColor rgb="00FF9999"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,14 +61,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,64 +457,65 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ROW</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>TITLE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>FIRST_NAME</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>LAST_NAME</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>YR</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>CALC_101_FINAL</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>ENG_101_FINAL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>ECON_101_FINAL</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>STAT_201_FINAL</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -558,47 +561,48 @@
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="3" t="n">
         <v>200</v>
       </c>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -638,35 +642,40 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Kavita</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Kanabar</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="3" t="n">
         <v>19</v>
       </c>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -706,41 +715,44 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Omar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Reichel</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="3" t="n">
         <v>50</v>
       </c>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -774,35 +786,40 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Felicia</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Rao</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>20</v>
       </c>
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -839,42 +856,46 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>McDonald</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="3" t="n">
         <v>98</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="3" t="n">
         <v>65</v>
       </c>
-    </row>
+      <c r="J11" s="3" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="n"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_FILES/X_TEST_STUDENTS.xlsx
+++ b/DATA_FILES/X_TEST_STUDENTS.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF9999"/>
         <bgColor rgb="00FF9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6600"/>
+        <bgColor rgb="00FF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -61,11 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -435,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +523,9 @@
         </is>
       </c>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -558,48 +571,47 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" t="n">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" t="n">
         <v>90</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" t="n">
         <v>80</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" t="n">
         <v>90</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" t="n">
         <v>200</v>
       </c>
-      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -642,40 +654,35 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Kavita</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Kanabar</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" t="n">
         <v>19</v>
       </c>
-      <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -715,44 +722,41 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Omar</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Reichel</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" t="n">
         <v>21</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" t="n">
         <v>70</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" t="n">
         <v>50</v>
       </c>
-      <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr"/>
-      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -786,40 +790,35 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Felicia</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Rao</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" t="n">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -856,46 +855,98 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>McDonald</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" t="n">
         <v>18</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" t="n">
         <v>98</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" t="n">
         <v>65</v>
       </c>
-      <c r="J11" s="3" t="inlineStr"/>
-      <c r="K11" s="3" t="inlineStr"/>
-      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12"/>
+    <row r="13">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+    </row>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+    </row>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+    </row>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="5" t="n"/>
+    </row>
+    <row r="24"/>
+    <row r="25">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_FILES/X_TEST_STUDENTS.xlsx
+++ b/DATA_FILES/X_TEST_STUDENTS.xlsx
@@ -29,24 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF9999"/>
-        <bgColor rgb="00FF9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF6600"/>
-        <bgColor rgb="00FF6600"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -67,19 +55,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -445,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,430 +508,392 @@
           <t>STAT_201_FINAL</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>MR.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>NISHIHARA</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>OR</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="3" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Ben</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Leibstrom</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="J4" t="n">
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="3" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Kavita</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Kanabar</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="3" t="n">
         <v>19</v>
       </c>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Linda</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Thiel</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="3" t="n">
         <v>40</v>
       </c>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Omar</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Reichel</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="3" t="n">
         <v>50</v>
       </c>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Jane</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>OConner</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>HI</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="3" t="n">
         <v>19</v>
       </c>
+      <c r="H8" s="3" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr"/>
+      <c r="K8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Felicia</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Rao</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>20</v>
       </c>
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Rachel</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Crock</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="I10" t="n">
+      <c r="H10" s="3" t="inlineStr"/>
+      <c r="I10" s="3" t="n">
         <v>60</v>
       </c>
+      <c r="J10" s="3" t="inlineStr"/>
+      <c r="K10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>McDonald</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="3" t="n">
         <v>98</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="3" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="12"/>
-    <row r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-    </row>
-    <row r="14"/>
-    <row r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-    </row>
-    <row r="16"/>
-    <row r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-    </row>
-    <row r="18"/>
-    <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-    </row>
-    <row r="20"/>
-    <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-    </row>
-    <row r="22"/>
-    <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-    </row>
-    <row r="24"/>
-    <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
+      <c r="J11" s="3" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA_FILES/X_TEST_STUDENTS.xlsx
+++ b/DATA_FILES/X_TEST_STUDENTS.xlsx
@@ -55,15 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -458,52 +455,52 @@
           <t>ROW</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>TITLE</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>FIRST_NAME</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>LAST_NAME</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>YR</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CALC_101_FINAL</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ENG_101_FINAL</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ECON_101_FINAL</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>STAT_201_FINAL</t>
         </is>
@@ -513,42 +510,42 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>MR.</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>NISHIHARA</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>OR</t>
         </is>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" t="n">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" t="n">
         <v>100</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" t="n">
         <v>100</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" t="n">
         <v>100</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -556,42 +553,42 @@
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" t="n">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" t="n">
         <v>90</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" t="n">
         <v>80</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" t="n">
         <v>90</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" t="n">
         <v>200</v>
       </c>
     </row>
@@ -599,40 +596,39 @@
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Ben</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Leibstrom</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" t="n">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" t="n">
         <v>80</v>
       </c>
-      <c r="I4" s="3" t="inlineStr"/>
-      <c r="J4" s="3" t="n">
+      <c r="J4" t="n">
         <v>80</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" t="n">
         <v>300</v>
       </c>
     </row>
@@ -640,260 +636,239 @@
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Kavita</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Kanabar</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" t="n">
         <v>19</v>
       </c>
-      <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Linda</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Thiel</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" t="n">
         <v>22</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" t="n">
         <v>60</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" t="n">
         <v>40</v>
       </c>
-      <c r="J6" s="3" t="inlineStr"/>
-      <c r="K6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Omar</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Reichel</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" t="n">
         <v>21</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" t="n">
         <v>70</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" t="n">
         <v>50</v>
       </c>
-      <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Jane</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>OConner</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>HI</t>
         </is>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" t="n">
         <v>19</v>
       </c>
-      <c r="H8" s="3" t="inlineStr"/>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="inlineStr"/>
-      <c r="K8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Felicia</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Rao</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" t="n">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Rachel</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Crock</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" t="n">
         <v>17</v>
       </c>
-      <c r="H10" s="3" t="inlineStr"/>
-      <c r="I10" s="3" t="n">
+      <c r="I10" t="n">
         <v>60</v>
       </c>
-      <c r="J10" s="3" t="inlineStr"/>
-      <c r="K10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>McDonald</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" t="n">
         <v>18</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" t="n">
         <v>98</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" t="n">
         <v>65</v>
       </c>
-      <c r="J11" s="3" t="inlineStr"/>
-      <c r="K11" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA_FILES/X_TEST_STUDENTS.xlsx
+++ b/DATA_FILES/X_TEST_STUDENTS.xlsx
@@ -29,12 +29,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,13 +67,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,420 +487,442 @@
           <t>ROW</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>TITLE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>FIRST_NAME</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>LAST_NAME</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>YR</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>AGE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>CALC_101_FINAL</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>ENG_101_FINAL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>ECON_101_FINAL</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>STAT_201_FINAL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>MR.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>NISHIHARA</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>OR</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="6" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="10" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="9" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Ben</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Leibstrom</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="J4" t="n">
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="6" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>Kavita</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>Kanabar</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="10" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="10" t="n">
         <v>19</v>
       </c>
+      <c r="H5" s="9" t="inlineStr"/>
+      <c r="I5" s="9" t="inlineStr"/>
+      <c r="J5" s="9" t="inlineStr"/>
+      <c r="K5" s="9" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Linda</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Thiel</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="6" t="n">
         <v>40</v>
       </c>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Omar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>Reichel</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="10" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="9" t="n">
         <v>50</v>
       </c>
+      <c r="J7" s="9" t="inlineStr"/>
+      <c r="K7" s="9" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Jane</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>OConner</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>HI</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="7" t="n">
         <v>19</v>
       </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Felicia</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>Rao</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="10" t="n">
         <v>20</v>
       </c>
+      <c r="H9" s="9" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr"/>
+      <c r="J9" s="9" t="inlineStr"/>
+      <c r="K9" s="9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Miss</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>Rachel</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>Crock</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="I10" t="n">
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
         <v>60</v>
       </c>
+      <c r="J10" s="6" t="inlineStr"/>
+      <c r="K10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Mr.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>McDonald</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="10" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="9" t="n">
         <v>98</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="9" t="n">
         <v>65</v>
       </c>
+      <c r="J11" s="9" t="inlineStr"/>
+      <c r="K11" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA_FILES/X_TEST_STUDENTS.xlsx
+++ b/DATA_FILES/X_TEST_STUDENTS.xlsx
@@ -38,14 +38,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF6600"/>
+        <bgColor rgb="00FF6600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>

--- a/DATA_FILES/X_TEST_STUDENTS.xlsx
+++ b/DATA_FILES/X_TEST_STUDENTS.xlsx
@@ -38,14 +38,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF6600"/>
-        <bgColor rgb="00FF6600"/>
+        <fgColor rgb="00FF00FF"/>
+        <bgColor rgb="00FF00FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
